--- a/CLASS_B/01-Excel/3/Activities/11-Stu_CerealOutliers/Unsolved/Outliers_Activity_Unsolved.xlsx
+++ b/CLASS_B/01-Excel/3/Activities/11-Stu_CerealOutliers/Unsolved/Outliers_Activity_Unsolved.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joekaplan/git/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/11-Stu_OutliersDrawnQuartiled/Unsolved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\datan\new\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\11-Stu_CerealOutliers\Unsolved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A59B243-5490-453B-AA48-E3FD115747BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CC45F9-ABBC-451B-A7AE-25E89467333F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="antioxidants" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">antioxidants!$A$1:$E$3137</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="109">
   <si>
     <t>name</t>
   </si>
@@ -340,13 +341,34 @@
   </si>
   <si>
     <t>Wheaties Honey Gold</t>
+  </si>
+  <si>
+    <t>First Quartile:</t>
+  </si>
+  <si>
+    <t>Median:</t>
+  </si>
+  <si>
+    <t>Second Quartile:</t>
+  </si>
+  <si>
+    <t>Third Quartile:</t>
+  </si>
+  <si>
+    <t>Interquartile Range:</t>
+  </si>
+  <si>
+    <t>Q1 - (1.5*IQR) Boundary:</t>
+  </si>
+  <si>
+    <t>Q3 + (1.5*IQR) Boundary:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1211,18 +1233,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:P78"/>
+    <sheetView topLeftCell="P1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.875" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="30" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="66.8984375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8984375" hidden="1" customWidth="1"/>
+    <col min="4" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1345,7 @@
         <v>68.402973000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1372,7 +1395,7 @@
         <v>33.983679000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1422,7 +1445,7 @@
         <v>59.425505000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1472,7 +1495,7 @@
         <v>93.704911999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1522,7 +1545,7 @@
         <v>34.384842999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1572,7 +1595,7 @@
         <v>29.509540999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1622,7 +1645,7 @@
         <v>33.174093999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1672,7 +1695,7 @@
         <v>37.038561999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1722,7 +1745,7 @@
         <v>49.120252999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1772,7 +1795,7 @@
         <v>53.313813000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1822,7 +1845,7 @@
         <v>18.042850999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1872,7 +1895,7 @@
         <v>50.764999000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1922,7 +1945,7 @@
         <v>19.823573</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1972,7 +1995,7 @@
         <v>40.400207999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -2022,7 +2045,7 @@
         <v>22.736446000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2072,7 +2095,7 @@
         <v>41.445019000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -2122,7 +2145,7 @@
         <v>45.863323999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -2172,7 +2195,7 @@
         <v>35.782791000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2222,7 +2245,7 @@
         <v>22.396512999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2272,7 +2295,7 @@
         <v>40.448771999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -2322,7 +2345,7 @@
         <v>64.533816000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,7 +2395,7 @@
         <v>46.895643999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2422,7 +2445,7 @@
         <v>36.176195999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -2472,7 +2495,7 @@
         <v>44.330855999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -2522,7 +2545,7 @@
         <v>32.207582000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -2572,7 +2595,7 @@
         <v>31.435973000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -2622,7 +2645,7 @@
         <v>58.345140999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="31.5">
+    <row r="29" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,7 +2695,7 @@
         <v>40.917046999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -2722,7 +2745,7 @@
         <v>41.015492000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -2772,7 +2795,7 @@
         <v>28.025765</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -2822,7 +2845,7 @@
         <v>35.252443999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
@@ -2872,7 +2895,7 @@
         <v>23.804043</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2922,7 +2945,7 @@
         <v>52.076897000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -2972,7 +2995,7 @@
         <v>53.371006999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.75">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -3022,7 +3045,7 @@
         <v>45.811715999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
@@ -3072,7 +3095,7 @@
         <v>21.871292</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.75">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,7 +3145,7 @@
         <v>31.072216999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
@@ -3172,7 +3195,7 @@
         <v>28.742414</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
@@ -3222,7 +3245,7 @@
         <v>36.523682999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.75">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>63</v>
       </c>
@@ -3272,7 +3295,7 @@
         <v>36.471511999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -3322,7 +3345,7 @@
         <v>39.241114000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.75">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -3372,7 +3395,7 @@
         <v>45.328074000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
@@ -3422,7 +3445,7 @@
         <v>26.734514999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
@@ -3472,7 +3495,7 @@
         <v>54.850917000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>69</v>
       </c>
@@ -3522,7 +3545,7 @@
         <v>37.136862999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.75">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
@@ -3572,7 +3595,7 @@
         <v>34.139764999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.75">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -3622,7 +3645,7 @@
         <v>30.313351000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.75">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,7 +3695,7 @@
         <v>40.105964999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.75">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>73</v>
       </c>
@@ -3722,7 +3745,7 @@
         <v>29.924285000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.75">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -3772,7 +3795,7 @@
         <v>40.692320000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15.75">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>75</v>
       </c>
@@ -3822,7 +3845,7 @@
         <v>59.642837</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15.75">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>76</v>
       </c>
@@ -3872,7 +3895,7 @@
         <v>30.450842999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15.75">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
@@ -3922,7 +3945,7 @@
         <v>37.840594000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15.75">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>78</v>
       </c>
@@ -3972,7 +3995,7 @@
         <v>41.503540000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15.75">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>79</v>
       </c>
@@ -4022,7 +4045,7 @@
         <v>60.756112000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15.75">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
@@ -4072,7 +4095,7 @@
         <v>63.005645000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15.75">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>81</v>
       </c>
@@ -4122,7 +4145,7 @@
         <v>49.511873999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15.75">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -4172,7 +4195,7 @@
         <v>50.828392000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15.75">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>83</v>
       </c>
@@ -4222,7 +4245,7 @@
         <v>39.259197</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15.75">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>84</v>
       </c>
@@ -4272,7 +4295,7 @@
         <v>39.703400000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15.75">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>85</v>
       </c>
@@ -4322,7 +4345,7 @@
         <v>55.333142000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15.75">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>86</v>
       </c>
@@ -4372,7 +4395,7 @@
         <v>41.998933000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15.75">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -4422,7 +4445,7 @@
         <v>40.560158999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15.75">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -4472,7 +4495,7 @@
         <v>68.235884999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15.75">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -4522,7 +4545,7 @@
         <v>74.472949</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15.75">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>90</v>
       </c>
@@ -4572,7 +4595,7 @@
         <v>72.801787000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15.75">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>91</v>
       </c>
@@ -4622,7 +4645,7 @@
         <v>31.230053999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15.75">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>92</v>
       </c>
@@ -4672,7 +4695,7 @@
         <v>53.131323999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15.75">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>93</v>
       </c>
@@ -4722,7 +4745,7 @@
         <v>59.363993000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15.75">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>94</v>
       </c>
@@ -4772,7 +4795,7 @@
         <v>38.839745999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15.75">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>95</v>
       </c>
@@ -4822,7 +4845,7 @@
         <v>28.592784999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15.75">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>96</v>
       </c>
@@ -4872,7 +4895,7 @@
         <v>46.658844000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15.75">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>97</v>
       </c>
@@ -4922,7 +4945,7 @@
         <v>39.106174000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15.75">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
@@ -4972,7 +4995,7 @@
         <v>27.753301</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15.75">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>99</v>
       </c>
@@ -5022,7 +5045,7 @@
         <v>49.787444999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15.75">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>100</v>
       </c>
@@ -5072,7 +5095,7 @@
         <v>51.592193000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15.75">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>101</v>
       </c>
@@ -5128,4 +5151,433 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11490EF5-0457-4569-9DAE-6450E449316A}">
+  <dimension ref="A1:H78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2">
+        <v>68.402973000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3">
+        <v>33.983679000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4">
+        <v>59.425505000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5">
+        <v>93.704911999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>34.384842999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7">
+        <v>29.509540999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8">
+        <v>33.174093999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>37.038561999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>49.120252999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>53.313813000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>18.042850999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>50.764999000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>19.823573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>40.400207999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>22.736446000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>41.445019000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>45.863323999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>35.782791000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>22.396512999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>40.448771999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>64.533816000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>46.895643999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>36.176195999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>44.330855999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>32.207582000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>31.435973000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>58.345140999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>40.917046999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>41.015492000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>28.025765</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>35.252443999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>23.804043</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>52.076897000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>53.371006999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>45.811715999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>21.871292</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>31.072216999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>28.742414</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>36.523682999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>36.471511999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>39.241114000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>45.328074000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>26.734514999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>54.850917000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>37.136862999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>34.139764999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>30.313351000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>40.105964999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>29.924285000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>40.692320000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>59.642837</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>30.450842999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>37.840594000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>41.503540000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>60.756112000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>63.005645000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>49.511873999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>50.828392000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>39.259197</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>39.703400000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>55.333142000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>41.998933000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>40.560158999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <v>68.235884999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>74.472949</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>72.801787000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>31.230053999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>53.131323999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>59.363993000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>38.839745999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>28.592784999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>46.658844000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>39.106174000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <v>27.753301</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <v>49.787444999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>51.592193000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <v>36.187559</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>